--- a/Girdiler.xlsx
+++ b/Girdiler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menes\Desktop\Proje\KODLAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9CEA51-5D9E-49FC-B834-254B5ED80025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1A546-7B6A-4194-B7F5-BB193F4457F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5232C2B8-808B-47FC-9659-457238939EB3}"/>
   </bookViews>
@@ -781,7 +781,7 @@
   <dimension ref="A1:CX102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1102,12 +1102,24 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1207,12 +1219,24 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1312,12 +1336,24 @@
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1417,12 +1453,24 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1522,12 +1570,24 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
